--- a/docs/PPG/Repositórios.xlsx
+++ b/docs/PPG/Repositórios.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioDL/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16EFFE2-D1DF-094C-B7C0-F94512B6595E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C505F9A-BAA6-9E41-9B49-D2F4D0743879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="1" r:id="rId1"/>
-    <sheet name="Cooperação" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Curso</t>
   </si>
@@ -52,22 +51,16 @@
     <t>Documentos</t>
   </si>
   <si>
-    <t>1na3a8kF7BEkmcdMhTaLkUI5G_bimqd1G</t>
-  </si>
-  <si>
     <t>Doutorado</t>
   </si>
   <si>
     <t>Teses</t>
   </si>
   <si>
-    <t>1pP_7A0gWvmMleVgngGtda2NqnGkmxDe5</t>
-  </si>
-  <si>
-    <t>1ZXgqW8bqo8e0CLx51OTQw3j3Cc1E1aOo</t>
-  </si>
-  <si>
-    <t>1ZTTUp6sjiLcQMFdhuY6h9v6xqWKJTdd3</t>
+    <t>13KRdCqYkAX68x6xEx9lhVHLkGZ5UYS-B</t>
+  </si>
+  <si>
+    <t>1qGHJ8IKBW4TaxTdGi2PMJDQwzXdYOGKn</t>
   </si>
 </sst>
 </file>
@@ -120,11 +113,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -144,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,18 +461,18 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -500,64 +492,4 @@
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6C87C-2925-6243-A114-A0230C240110}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>